--- a/inst/algorithms scoring.xlsx
+++ b/inst/algorithms scoring.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="134">
   <si>
     <t>algorithms_id</t>
   </si>
@@ -353,19 +353,94 @@
   </si>
   <si>
     <t>unlabelled_data</t>
+  </si>
+  <si>
+    <t>meta_name</t>
+  </si>
+  <si>
+    <t>meta_influenze</t>
+  </si>
+  <si>
+    <t>mlr.classif.bst.preproc.preproc</t>
+  </si>
+  <si>
+    <t>classif.extraTrees</t>
+  </si>
+  <si>
+    <t>classif.fnn</t>
+  </si>
+  <si>
+    <t>mlr.classif.gausspr.preproc</t>
+  </si>
+  <si>
+    <t>classif.gbm</t>
+  </si>
+  <si>
+    <t>mlr.classif.kknn</t>
+  </si>
+  <si>
+    <t>mlr.classif.ksvm</t>
+  </si>
+  <si>
+    <t>mlr.classif.svm</t>
+  </si>
+  <si>
+    <t>classif.nnet</t>
+  </si>
+  <si>
+    <t>mlr.classif.RRF.imputed.dummied.preproc</t>
+  </si>
+  <si>
+    <t>mlr.classif.rpart</t>
+  </si>
+  <si>
+    <t>mlr.classif.xgboost</t>
+  </si>
+  <si>
+    <t>mlr.classif.ada</t>
+  </si>
+  <si>
+    <t>classif.bartMachine</t>
+  </si>
+  <si>
+    <t>classif.binomial</t>
+  </si>
+  <si>
+    <t>classif.lda</t>
+  </si>
+  <si>
+    <t>classif.logreg</t>
+  </si>
+  <si>
+    <t>classif.multinom</t>
+  </si>
+  <si>
+    <t>mlr.classif.rknn.preproc.preproc</t>
+  </si>
+  <si>
+    <t>mlr.classif.glmnet</t>
+  </si>
+  <si>
+    <t>mlr.regr.lm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -388,12 +463,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -674,13 +750,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z38"/>
+  <dimension ref="A1:AB38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K14" sqref="K14"/>
+      <selection pane="bottomRight" activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,35 +764,37 @@
     <col min="1" max="1" width="13.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="5.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="7" style="1" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="18.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="12" style="1" customWidth="1"/>
-    <col min="18" max="18" width="9.140625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="7.28515625" style="1" customWidth="1"/>
-    <col min="20" max="21" width="10.85546875" style="1" customWidth="1"/>
-    <col min="22" max="22" width="9.7109375" style="1" customWidth="1"/>
-    <col min="23" max="23" width="6.85546875" style="1" customWidth="1"/>
-    <col min="24" max="24" width="11.85546875" style="1" customWidth="1"/>
-    <col min="25" max="25" width="12.5703125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="9.140625" style="1"/>
-    <col min="27" max="27" width="8.85546875" style="1" customWidth="1"/>
-    <col min="28" max="28" width="11.28515625" style="1" customWidth="1"/>
-    <col min="29" max="29" width="12.28515625" style="1" customWidth="1"/>
-    <col min="30" max="30" width="12.140625" style="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="23.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" style="1" customWidth="1"/>
+    <col min="8" max="9" width="10.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="5.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7" style="1" customWidth="1"/>
+    <col min="16" max="16" width="7.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="18.28515625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="12" style="1" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="7.28515625" style="1" customWidth="1"/>
+    <col min="22" max="23" width="10.85546875" style="1" customWidth="1"/>
+    <col min="24" max="24" width="9.7109375" style="1" customWidth="1"/>
+    <col min="25" max="25" width="6.85546875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="11.85546875" style="1" customWidth="1"/>
+    <col min="27" max="27" width="12.5703125" style="1" customWidth="1"/>
+    <col min="28" max="28" width="9.140625" style="1"/>
+    <col min="29" max="29" width="8.85546875" style="1" customWidth="1"/>
+    <col min="30" max="30" width="11.28515625" style="1" customWidth="1"/>
+    <col min="31" max="31" width="12.28515625" style="1" customWidth="1"/>
+    <col min="32" max="32" width="12.140625" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -727,70 +805,76 @@
         <v>74</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
@@ -800,24 +884,24 @@
       <c r="C2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="1">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1">
-        <f>(H2*-1)</f>
-        <v>-10</v>
+      <c r="D2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
       </c>
       <c r="H2" s="1">
         <v>10</v>
       </c>
       <c r="I2" s="1">
-        <v>10</v>
-      </c>
-      <c r="O2" s="1">
-        <v>-10</v>
-      </c>
-      <c r="P2" s="1">
-        <v>-10</v>
+        <f t="shared" ref="I2:I38" si="0">(J2*-1)</f>
+        <v>-10</v>
+      </c>
+      <c r="J2" s="1">
+        <v>10</v>
+      </c>
+      <c r="K2" s="1">
+        <v>10</v>
       </c>
       <c r="Q2" s="1">
         <v>-10</v>
@@ -825,17 +909,23 @@
       <c r="R2" s="1">
         <v>-10</v>
       </c>
+      <c r="S2" s="1">
+        <v>-10</v>
+      </c>
       <c r="T2" s="1">
-        <v>10</v>
-      </c>
-      <c r="U2" s="1">
-        <v>-10</v>
-      </c>
-      <c r="W2">
+        <v>-10</v>
+      </c>
+      <c r="V2" s="1">
+        <v>10</v>
+      </c>
+      <c r="W2" s="1">
+        <v>-10</v>
+      </c>
+      <c r="Y2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
@@ -845,33 +935,33 @@
       <c r="C3" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F3" s="1">
-        <v>10</v>
-      </c>
-      <c r="G3" s="1">
-        <f>(H3*-1)</f>
-        <v>-10</v>
+      <c r="D3" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E3" s="1">
+        <v>84</v>
       </c>
       <c r="H3" s="1">
         <v>10</v>
       </c>
       <c r="I3" s="1">
-        <v>10</v>
-      </c>
-      <c r="O3" s="1">
-        <v>-10</v>
-      </c>
-      <c r="P3" s="1">
-        <v>-10</v>
+        <f t="shared" si="0"/>
+        <v>-10</v>
+      </c>
+      <c r="J3" s="1">
+        <v>10</v>
+      </c>
+      <c r="K3" s="1">
+        <v>10</v>
       </c>
       <c r="Q3" s="1">
         <v>-10</v>
       </c>
       <c r="R3" s="1">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="S3" s="1">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="T3" s="1">
         <v>10</v>
@@ -879,9 +969,15 @@
       <c r="U3" s="1">
         <v>10</v>
       </c>
-      <c r="W3"/>
-    </row>
-    <row r="4" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="V3" s="1">
+        <v>10</v>
+      </c>
+      <c r="W3" s="1">
+        <v>10</v>
+      </c>
+      <c r="Y3"/>
+    </row>
+    <row r="4" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>38</v>
       </c>
@@ -891,24 +987,24 @@
       <c r="C4" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F4" s="1">
-        <v>10</v>
-      </c>
-      <c r="G4" s="1">
-        <f>(H4*-1)</f>
-        <v>-10</v>
+      <c r="D4" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
       </c>
       <c r="H4" s="1">
         <v>10</v>
       </c>
       <c r="I4" s="1">
-        <v>10</v>
-      </c>
-      <c r="O4" s="1">
-        <v>-10</v>
-      </c>
-      <c r="P4" s="1">
-        <v>-10</v>
+        <f t="shared" si="0"/>
+        <v>-10</v>
+      </c>
+      <c r="J4" s="1">
+        <v>10</v>
+      </c>
+      <c r="K4" s="1">
+        <v>10</v>
       </c>
       <c r="Q4" s="1">
         <v>-10</v>
@@ -916,17 +1012,23 @@
       <c r="R4" s="1">
         <v>-10</v>
       </c>
+      <c r="S4" s="1">
+        <v>-10</v>
+      </c>
       <c r="T4" s="1">
-        <v>10</v>
-      </c>
-      <c r="U4" s="1">
-        <v>10</v>
-      </c>
-      <c r="W4">
+        <v>-10</v>
+      </c>
+      <c r="V4" s="1">
+        <v>10</v>
+      </c>
+      <c r="W4" s="1">
+        <v>10</v>
+      </c>
+      <c r="Y4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>40</v>
       </c>
@@ -936,45 +1038,51 @@
       <c r="C5" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F5" s="1">
-        <v>10</v>
-      </c>
-      <c r="G5" s="1">
-        <f>(H5*-1)</f>
-        <v>-10</v>
+      <c r="D5" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" s="1">
+        <v>65</v>
       </c>
       <c r="H5" s="1">
         <v>10</v>
       </c>
       <c r="I5" s="1">
-        <v>10</v>
-      </c>
-      <c r="O5" s="1">
-        <v>10</v>
-      </c>
-      <c r="P5" s="1">
-        <v>-10</v>
+        <f t="shared" si="0"/>
+        <v>-10</v>
+      </c>
+      <c r="J5" s="1">
+        <v>10</v>
+      </c>
+      <c r="K5" s="1">
+        <v>10</v>
       </c>
       <c r="Q5" s="1">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="R5" s="1">
         <v>-10</v>
       </c>
       <c r="S5" s="1">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="T5" s="1">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="U5" s="1">
         <v>10</v>
       </c>
-      <c r="W5">
+      <c r="V5" s="1">
+        <v>10</v>
+      </c>
+      <c r="W5" s="1">
+        <v>10</v>
+      </c>
+      <c r="Y5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>42</v>
       </c>
@@ -984,30 +1092,30 @@
       <c r="C6" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F6" s="1">
-        <v>10</v>
-      </c>
-      <c r="G6" s="1">
-        <f>(H6*-1)</f>
-        <v>-10</v>
+      <c r="D6" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" s="1">
+        <v>221</v>
       </c>
       <c r="H6" s="1">
         <v>10</v>
       </c>
       <c r="I6" s="1">
-        <v>10</v>
-      </c>
-      <c r="O6" s="1">
-        <v>10</v>
-      </c>
-      <c r="P6" s="1">
-        <v>-10</v>
+        <f t="shared" si="0"/>
+        <v>-10</v>
+      </c>
+      <c r="J6" s="1">
+        <v>10</v>
+      </c>
+      <c r="K6" s="1">
+        <v>10</v>
       </c>
       <c r="Q6" s="1">
         <v>10</v>
       </c>
       <c r="R6" s="1">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="S6" s="1">
         <v>10</v>
@@ -1018,11 +1126,17 @@
       <c r="U6" s="1">
         <v>10</v>
       </c>
-      <c r="W6">
+      <c r="V6" s="1">
+        <v>10</v>
+      </c>
+      <c r="W6" s="1">
+        <v>10</v>
+      </c>
+      <c r="Y6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>44</v>
       </c>
@@ -1032,49 +1146,55 @@
       <c r="C7" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F7" s="1">
-        <v>10</v>
-      </c>
-      <c r="G7" s="1">
-        <f>(H7*-1)</f>
-        <v>-10</v>
+      <c r="D7" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7" s="1">
+        <v>50981</v>
       </c>
       <c r="H7" s="1">
         <v>10</v>
       </c>
       <c r="I7" s="1">
-        <v>10</v>
-      </c>
-      <c r="N7" s="1">
-        <v>10</v>
-      </c>
-      <c r="O7" s="1">
+        <f t="shared" si="0"/>
+        <v>-10</v>
+      </c>
+      <c r="J7" s="1">
+        <v>10</v>
+      </c>
+      <c r="K7" s="1">
         <v>10</v>
       </c>
       <c r="P7" s="1">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="Q7" s="1">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="R7" s="1">
         <v>-10</v>
       </c>
       <c r="S7" s="1">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="T7" s="1">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="U7" s="1">
         <v>10</v>
       </c>
-      <c r="W7">
+      <c r="V7" s="1">
+        <v>10</v>
+      </c>
+      <c r="W7" s="1">
+        <v>10</v>
+      </c>
+      <c r="Y7">
         <v>1</v>
       </c>
-      <c r="Z7" s="2"/>
-    </row>
-    <row r="8" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+      <c r="AB7" s="2"/>
+    </row>
+    <row r="8" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>46</v>
       </c>
@@ -1084,51 +1204,57 @@
       <c r="C8" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F8" s="1">
-        <v>10</v>
-      </c>
-      <c r="G8" s="1">
-        <f>(H8*-1)</f>
-        <v>-10</v>
+      <c r="D8" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E8" s="1">
+        <v>335</v>
       </c>
       <c r="H8" s="1">
         <v>10</v>
       </c>
       <c r="I8" s="1">
-        <v>10</v>
-      </c>
-      <c r="M8" s="1">
-        <v>10</v>
-      </c>
-      <c r="N8" s="1">
+        <f t="shared" si="0"/>
+        <v>-10</v>
+      </c>
+      <c r="J8" s="1">
+        <v>10</v>
+      </c>
+      <c r="K8" s="1">
         <v>10</v>
       </c>
       <c r="O8" s="1">
         <v>10</v>
       </c>
       <c r="P8" s="1">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="Q8" s="1">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="R8" s="1">
         <v>-10</v>
       </c>
       <c r="S8" s="1">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="T8" s="1">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="U8" s="1">
         <v>10</v>
       </c>
-      <c r="W8">
+      <c r="V8" s="1">
+        <v>10</v>
+      </c>
+      <c r="W8" s="1">
+        <v>10</v>
+      </c>
+      <c r="Y8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>89</v>
       </c>
@@ -1138,48 +1264,54 @@
       <c r="C9" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F9" s="1">
-        <v>10</v>
-      </c>
-      <c r="G9" s="1">
-        <f>(H9*-1)</f>
-        <v>-10</v>
+      <c r="D9" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E9" s="3">
+        <v>459246</v>
       </c>
       <c r="H9" s="1">
         <v>10</v>
       </c>
       <c r="I9" s="1">
-        <v>10</v>
-      </c>
-      <c r="N9" s="1">
-        <v>10</v>
-      </c>
-      <c r="O9" s="1">
+        <f t="shared" si="0"/>
+        <v>-10</v>
+      </c>
+      <c r="J9" s="1">
+        <v>10</v>
+      </c>
+      <c r="K9" s="1">
         <v>10</v>
       </c>
       <c r="P9" s="1">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="Q9" s="1">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="R9" s="1">
         <v>-10</v>
       </c>
       <c r="S9" s="1">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="T9" s="1">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="U9" s="1">
         <v>10</v>
       </c>
-      <c r="W9">
+      <c r="V9" s="1">
+        <v>10</v>
+      </c>
+      <c r="W9" s="1">
+        <v>10</v>
+      </c>
+      <c r="Y9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>72</v>
       </c>
@@ -1189,33 +1321,33 @@
       <c r="C10" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F10" s="1">
-        <v>10</v>
-      </c>
-      <c r="G10" s="1">
-        <f>(H10*-1)</f>
-        <v>-10</v>
+      <c r="D10" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10" s="1">
+        <v>152</v>
       </c>
       <c r="H10" s="1">
         <v>10</v>
       </c>
       <c r="I10" s="1">
-        <v>10</v>
-      </c>
-      <c r="O10" s="1">
-        <v>10</v>
-      </c>
-      <c r="P10" s="1">
-        <v>-10</v>
+        <f t="shared" si="0"/>
+        <v>-10</v>
+      </c>
+      <c r="J10" s="1">
+        <v>10</v>
+      </c>
+      <c r="K10" s="1">
+        <v>10</v>
       </c>
       <c r="Q10" s="1">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="R10" s="1">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="S10" s="1">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="T10" s="1">
         <v>10</v>
@@ -1223,9 +1355,15 @@
       <c r="U10" s="1">
         <v>10</v>
       </c>
-      <c r="W10"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="V10" s="1">
+        <v>10</v>
+      </c>
+      <c r="W10" s="1">
+        <v>10</v>
+      </c>
+      <c r="Y10"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>56</v>
       </c>
@@ -1235,43 +1373,49 @@
       <c r="C11" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F11" s="1">
-        <v>10</v>
-      </c>
-      <c r="G11" s="1">
-        <f>(H11*-1)</f>
-        <v>-10</v>
+      <c r="D11" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E11" s="1">
+        <v>399</v>
       </c>
       <c r="H11" s="1">
         <v>10</v>
       </c>
       <c r="I11" s="1">
-        <v>10</v>
-      </c>
-      <c r="O11" s="1">
-        <v>10</v>
-      </c>
-      <c r="P11" s="1">
+        <f t="shared" si="0"/>
+        <v>-10</v>
+      </c>
+      <c r="J11" s="1">
+        <v>10</v>
+      </c>
+      <c r="K11" s="1">
         <v>10</v>
       </c>
       <c r="Q11" s="1">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="R11" s="1">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="S11" s="1">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="T11" s="1">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="U11" s="1">
         <v>10</v>
       </c>
-      <c r="W11"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="V11" s="1">
+        <v>10</v>
+      </c>
+      <c r="W11" s="1">
+        <v>10</v>
+      </c>
+      <c r="Y11"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>60</v>
       </c>
@@ -1281,23 +1425,23 @@
       <c r="C12" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F12" s="1">
-        <v>10</v>
-      </c>
-      <c r="G12" s="1">
-        <f>(H12*-1)</f>
-        <v>-10</v>
+      <c r="D12" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" s="3">
+        <v>465158</v>
       </c>
       <c r="H12" s="1">
         <v>10</v>
       </c>
       <c r="I12" s="1">
-        <v>10</v>
-      </c>
-      <c r="O12" s="1">
-        <v>10</v>
-      </c>
-      <c r="P12" s="1">
+        <f t="shared" si="0"/>
+        <v>-10</v>
+      </c>
+      <c r="J12" s="1">
+        <v>10</v>
+      </c>
+      <c r="K12" s="1">
         <v>10</v>
       </c>
       <c r="Q12" s="1">
@@ -1315,9 +1459,15 @@
       <c r="U12" s="1">
         <v>10</v>
       </c>
-      <c r="W12"/>
-    </row>
-    <row r="13" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="V12" s="1">
+        <v>10</v>
+      </c>
+      <c r="W12" s="1">
+        <v>10</v>
+      </c>
+      <c r="Y12"/>
+    </row>
+    <row r="13" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>62</v>
       </c>
@@ -1327,30 +1477,30 @@
       <c r="C13" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F13" s="1">
-        <v>10</v>
-      </c>
-      <c r="G13" s="1">
-        <f>(H13*-1)</f>
-        <v>-10</v>
+      <c r="D13" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E13" s="3">
+        <v>557611</v>
       </c>
       <c r="H13" s="1">
         <v>10</v>
       </c>
       <c r="I13" s="1">
-        <v>10</v>
-      </c>
-      <c r="O13" s="1">
-        <v>-10</v>
-      </c>
-      <c r="P13" s="1">
-        <v>-10</v>
+        <f t="shared" si="0"/>
+        <v>-10</v>
+      </c>
+      <c r="J13" s="1">
+        <v>10</v>
+      </c>
+      <c r="K13" s="1">
+        <v>10</v>
       </c>
       <c r="Q13" s="1">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="R13" s="1">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="S13" s="1">
         <v>10</v>
@@ -1361,9 +1511,15 @@
       <c r="U13" s="1">
         <v>10</v>
       </c>
-      <c r="W13"/>
-    </row>
-    <row r="14" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="V13" s="1">
+        <v>10</v>
+      </c>
+      <c r="W13" s="1">
+        <v>10</v>
+      </c>
+      <c r="Y13"/>
+    </row>
+    <row r="14" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>97</v>
       </c>
@@ -1373,30 +1529,30 @@
       <c r="C14" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F14" s="1">
-        <v>10</v>
-      </c>
-      <c r="G14" s="1">
-        <f>(H14*-1)</f>
-        <v>-10</v>
-      </c>
       <c r="H14" s="1">
         <v>10</v>
       </c>
       <c r="I14" s="1">
-        <v>10</v>
-      </c>
-      <c r="M14" s="1">
-        <v>10</v>
-      </c>
-      <c r="N14" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>-10</v>
+      </c>
+      <c r="J14" s="1">
+        <v>10</v>
+      </c>
+      <c r="K14" s="1">
+        <v>10</v>
+      </c>
+      <c r="O14" s="1">
+        <v>10</v>
+      </c>
+      <c r="P14" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
@@ -1406,45 +1562,51 @@
       <c r="C15" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F15" s="1">
-        <v>10</v>
-      </c>
-      <c r="G15" s="1">
-        <f>(H15*-1)</f>
-        <v>-10</v>
+      <c r="D15" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
       </c>
       <c r="H15" s="1">
         <v>10</v>
       </c>
       <c r="I15" s="1">
-        <v>-10</v>
-      </c>
-      <c r="O15" s="1">
-        <v>10</v>
-      </c>
-      <c r="P15" s="1">
+        <f t="shared" si="0"/>
+        <v>-10</v>
+      </c>
+      <c r="J15" s="1">
+        <v>10</v>
+      </c>
+      <c r="K15" s="1">
         <v>-10</v>
       </c>
       <c r="Q15" s="1">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="R15" s="1">
         <v>-10</v>
       </c>
       <c r="S15" s="1">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="T15" s="1">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="U15" s="1">
-        <v>-10</v>
-      </c>
-      <c r="W15">
+        <v>10</v>
+      </c>
+      <c r="V15" s="1">
+        <v>10</v>
+      </c>
+      <c r="W15" s="1">
+        <v>-10</v>
+      </c>
+      <c r="Y15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
@@ -1454,23 +1616,23 @@
       <c r="C16" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F16" s="1">
-        <v>10</v>
-      </c>
-      <c r="G16" s="1">
-        <f>(H16*-1)</f>
-        <v>-10</v>
+      <c r="D16" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E16" s="1">
+        <v>29</v>
       </c>
       <c r="H16" s="1">
         <v>10</v>
       </c>
       <c r="I16" s="1">
-        <v>-10</v>
-      </c>
-      <c r="O16" s="1">
-        <v>10</v>
-      </c>
-      <c r="P16" s="1">
+        <f t="shared" si="0"/>
+        <v>-10</v>
+      </c>
+      <c r="J16" s="1">
+        <v>10</v>
+      </c>
+      <c r="K16" s="1">
         <v>-10</v>
       </c>
       <c r="Q16" s="1">
@@ -1483,14 +1645,20 @@
         <v>10</v>
       </c>
       <c r="T16" s="1">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="U16" s="1">
-        <v>-10</v>
-      </c>
-      <c r="W16"/>
-    </row>
-    <row r="17" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="V16" s="1">
+        <v>10</v>
+      </c>
+      <c r="W16" s="1">
+        <v>-10</v>
+      </c>
+      <c r="Y16"/>
+    </row>
+    <row r="17" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
@@ -1500,43 +1668,49 @@
       <c r="C17" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F17" s="1">
-        <v>10</v>
-      </c>
-      <c r="G17" s="1">
-        <f>(H17*-1)</f>
-        <v>-10</v>
+      <c r="D17" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17" s="1">
+        <v>247</v>
       </c>
       <c r="H17" s="1">
         <v>10</v>
       </c>
       <c r="I17" s="1">
-        <v>-10</v>
-      </c>
-      <c r="O17" s="1">
-        <v>10</v>
-      </c>
-      <c r="P17" s="1">
+        <f t="shared" si="0"/>
+        <v>-10</v>
+      </c>
+      <c r="J17" s="1">
+        <v>10</v>
+      </c>
+      <c r="K17" s="1">
         <v>-10</v>
       </c>
       <c r="Q17" s="1">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="R17" s="1">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="S17" s="1">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="T17" s="1">
         <v>10</v>
       </c>
       <c r="U17" s="1">
-        <v>-10</v>
-      </c>
-      <c r="W17"/>
-    </row>
-    <row r="18" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="V17" s="1">
+        <v>10</v>
+      </c>
+      <c r="W17" s="1">
+        <v>-10</v>
+      </c>
+      <c r="Y17"/>
+    </row>
+    <row r="18" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
@@ -1546,23 +1720,17 @@
       <c r="C18" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F18" s="1">
-        <v>10</v>
-      </c>
-      <c r="G18" s="1">
-        <f>(H18*-1)</f>
-        <v>-10</v>
-      </c>
       <c r="H18" s="1">
         <v>10</v>
       </c>
       <c r="I18" s="1">
-        <v>-10</v>
-      </c>
-      <c r="O18" s="1">
-        <v>-10</v>
-      </c>
-      <c r="P18" s="1">
+        <f t="shared" si="0"/>
+        <v>-10</v>
+      </c>
+      <c r="J18" s="1">
+        <v>10</v>
+      </c>
+      <c r="K18" s="1">
         <v>-10</v>
       </c>
       <c r="Q18" s="1">
@@ -1571,17 +1739,23 @@
       <c r="R18" s="1">
         <v>-10</v>
       </c>
+      <c r="S18" s="1">
+        <v>-10</v>
+      </c>
       <c r="T18" s="1">
-        <v>10</v>
-      </c>
-      <c r="U18" s="1">
-        <v>-10</v>
-      </c>
-      <c r="W18">
+        <v>-10</v>
+      </c>
+      <c r="V18" s="1">
+        <v>10</v>
+      </c>
+      <c r="W18" s="1">
+        <v>-10</v>
+      </c>
+      <c r="Y18">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>48</v>
       </c>
@@ -1591,45 +1765,51 @@
       <c r="C19" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F19" s="1">
-        <v>10</v>
-      </c>
-      <c r="G19" s="1">
-        <f>(H19*-1)</f>
-        <v>-10</v>
+      <c r="D19" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E19" s="1">
+        <v>234</v>
       </c>
       <c r="H19" s="1">
         <v>10</v>
       </c>
       <c r="I19" s="1">
-        <v>-10</v>
-      </c>
-      <c r="O19" s="1">
-        <v>10</v>
-      </c>
-      <c r="P19" s="1">
+        <f t="shared" si="0"/>
+        <v>-10</v>
+      </c>
+      <c r="J19" s="1">
+        <v>10</v>
+      </c>
+      <c r="K19" s="1">
         <v>-10</v>
       </c>
       <c r="Q19" s="1">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="R19" s="1">
         <v>-10</v>
       </c>
       <c r="S19" s="1">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="T19" s="1">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="U19" s="1">
         <v>10</v>
       </c>
-      <c r="W19">
+      <c r="V19" s="1">
+        <v>10</v>
+      </c>
+      <c r="W19" s="1">
+        <v>10</v>
+      </c>
+      <c r="Y19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>50</v>
       </c>
@@ -1639,45 +1819,51 @@
       <c r="C20" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F20" s="1">
-        <v>10</v>
-      </c>
-      <c r="G20" s="1">
-        <f>(H20*-1)</f>
-        <v>-10</v>
+      <c r="D20" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E20" s="1">
+        <v>59</v>
       </c>
       <c r="H20" s="1">
         <v>10</v>
       </c>
       <c r="I20" s="1">
-        <v>-10</v>
-      </c>
-      <c r="O20" s="1">
-        <v>10</v>
-      </c>
-      <c r="P20" s="1">
+        <f t="shared" si="0"/>
+        <v>-10</v>
+      </c>
+      <c r="J20" s="1">
+        <v>10</v>
+      </c>
+      <c r="K20" s="1">
         <v>-10</v>
       </c>
       <c r="Q20" s="1">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="R20" s="1">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="S20" s="1">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="T20" s="1">
         <v>10</v>
       </c>
       <c r="U20" s="1">
-        <v>-10</v>
-      </c>
-      <c r="W20">
+        <v>10</v>
+      </c>
+      <c r="V20" s="1">
+        <v>10</v>
+      </c>
+      <c r="W20" s="1">
+        <v>-10</v>
+      </c>
+      <c r="Y20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>52</v>
       </c>
@@ -1687,33 +1873,33 @@
       <c r="C21" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F21" s="1">
-        <v>10</v>
-      </c>
-      <c r="G21" s="1">
-        <f>(H21*-1)</f>
-        <v>-10</v>
+      <c r="D21" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E21" s="1">
+        <v>147</v>
       </c>
       <c r="H21" s="1">
         <v>10</v>
       </c>
       <c r="I21" s="1">
-        <v>-10</v>
-      </c>
-      <c r="O21" s="1">
-        <v>10</v>
-      </c>
-      <c r="P21" s="1">
+        <f t="shared" si="0"/>
+        <v>-10</v>
+      </c>
+      <c r="J21" s="1">
+        <v>10</v>
+      </c>
+      <c r="K21" s="1">
         <v>-10</v>
       </c>
       <c r="Q21" s="1">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="R21" s="1">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="S21" s="1">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="T21" s="1">
         <v>10</v>
@@ -1721,11 +1907,17 @@
       <c r="U21" s="1">
         <v>10</v>
       </c>
-      <c r="W21">
+      <c r="V21" s="1">
+        <v>10</v>
+      </c>
+      <c r="W21" s="1">
+        <v>10</v>
+      </c>
+      <c r="Y21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>54</v>
       </c>
@@ -1735,27 +1927,21 @@
       <c r="C22" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F22" s="1">
-        <v>10</v>
-      </c>
-      <c r="G22" s="1">
-        <f>(H22*-1)</f>
-        <v>-10</v>
-      </c>
       <c r="H22" s="1">
         <v>10</v>
       </c>
       <c r="I22" s="1">
-        <v>-10</v>
-      </c>
-      <c r="N22" s="1">
-        <v>10</v>
-      </c>
-      <c r="O22" s="1">
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>-10</v>
+      </c>
+      <c r="J22" s="1">
+        <v>10</v>
+      </c>
+      <c r="K22" s="1">
+        <v>-10</v>
       </c>
       <c r="P22" s="1">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="Q22" s="1">
         <v>10</v>
@@ -1767,7 +1953,7 @@
         <v>10</v>
       </c>
       <c r="T22" s="1">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="U22" s="1">
         <v>10</v>
@@ -1775,9 +1961,15 @@
       <c r="V22" s="1">
         <v>10</v>
       </c>
-      <c r="W22"/>
-    </row>
-    <row r="23" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="W22" s="1">
+        <v>10</v>
+      </c>
+      <c r="X22" s="1">
+        <v>10</v>
+      </c>
+      <c r="Y22"/>
+    </row>
+    <row r="23" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>58</v>
       </c>
@@ -1787,40 +1979,46 @@
       <c r="C23" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F23" s="1">
-        <v>10</v>
-      </c>
-      <c r="G23" s="1">
-        <f>(H23*-1)</f>
-        <v>-10</v>
+      <c r="D23" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
       </c>
       <c r="H23" s="1">
         <v>10</v>
       </c>
       <c r="I23" s="1">
-        <v>-10</v>
-      </c>
-      <c r="O23" s="1">
-        <v>-10</v>
-      </c>
-      <c r="P23" s="1">
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>-10</v>
+      </c>
+      <c r="J23" s="1">
+        <v>10</v>
+      </c>
+      <c r="K23" s="1">
+        <v>-10</v>
       </c>
       <c r="Q23" s="1">
         <v>-10</v>
       </c>
       <c r="R23" s="1">
+        <v>10</v>
+      </c>
+      <c r="S23" s="1">
         <v>-10</v>
       </c>
       <c r="T23" s="1">
-        <v>10</v>
-      </c>
-      <c r="U23" s="1">
-        <v>10</v>
-      </c>
-      <c r="W23"/>
-    </row>
-    <row r="24" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+        <v>-10</v>
+      </c>
+      <c r="V23" s="1">
+        <v>10</v>
+      </c>
+      <c r="W23" s="1">
+        <v>10</v>
+      </c>
+      <c r="Y23"/>
+    </row>
+    <row r="24" spans="1:25" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>97</v>
       </c>
@@ -1830,36 +2028,30 @@
       <c r="C24" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F24" s="1">
-        <v>10</v>
-      </c>
-      <c r="G24" s="1">
-        <f>(H24*-1)</f>
-        <v>-10</v>
-      </c>
       <c r="H24" s="1">
         <v>10</v>
       </c>
       <c r="I24" s="1">
-        <v>-10</v>
-      </c>
-      <c r="N24" s="1">
-        <v>10</v>
-      </c>
-      <c r="O24" s="1">
+        <f t="shared" si="0"/>
+        <v>-10</v>
+      </c>
+      <c r="J24" s="1">
+        <v>10</v>
+      </c>
+      <c r="K24" s="1">
         <v>-10</v>
       </c>
       <c r="P24" s="1">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="Q24" s="1">
         <v>-10</v>
       </c>
       <c r="R24" s="1">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="S24" s="1">
         <v>-10</v>
@@ -1868,13 +2060,19 @@
         <v>10</v>
       </c>
       <c r="U24" s="1">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="V24" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W24" s="1">
+        <v>10</v>
+      </c>
+      <c r="X24" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>77</v>
       </c>
@@ -1884,23 +2082,17 @@
       <c r="C25" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F25" s="1">
-        <v>10</v>
-      </c>
-      <c r="G25" s="1">
-        <f>(H25*-1)</f>
-        <v>10</v>
-      </c>
       <c r="H25" s="1">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="I25" s="1">
-        <v>-10</v>
-      </c>
-      <c r="O25" s="1">
-        <v>-10</v>
-      </c>
-      <c r="P25" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="J25" s="1">
+        <v>-10</v>
+      </c>
+      <c r="K25" s="1">
         <v>-10</v>
       </c>
       <c r="Q25" s="1">
@@ -1909,15 +2101,21 @@
       <c r="R25" s="1">
         <v>-10</v>
       </c>
+      <c r="S25" s="1">
+        <v>-10</v>
+      </c>
       <c r="T25" s="1">
         <v>-10</v>
       </c>
-      <c r="U25" s="1">
-        <v>-10</v>
-      </c>
-      <c r="W25"/>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="V25" s="1">
+        <v>-10</v>
+      </c>
+      <c r="W25" s="1">
+        <v>-10</v>
+      </c>
+      <c r="Y25"/>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>79</v>
       </c>
@@ -1927,23 +2125,17 @@
       <c r="C26" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F26" s="1">
-        <v>10</v>
-      </c>
-      <c r="G26" s="1">
-        <f>(H26*-1)</f>
-        <v>10</v>
-      </c>
       <c r="H26" s="1">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="I26" s="1">
-        <v>-10</v>
-      </c>
-      <c r="O26" s="1">
-        <v>-10</v>
-      </c>
-      <c r="P26" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="J26" s="1">
+        <v>-10</v>
+      </c>
+      <c r="K26" s="1">
         <v>-10</v>
       </c>
       <c r="Q26" s="1">
@@ -1952,15 +2144,21 @@
       <c r="R26" s="1">
         <v>-10</v>
       </c>
+      <c r="S26" s="1">
+        <v>-10</v>
+      </c>
       <c r="T26" s="1">
         <v>-10</v>
       </c>
-      <c r="U26" s="1">
-        <v>-10</v>
-      </c>
-      <c r="W26"/>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="V26" s="1">
+        <v>-10</v>
+      </c>
+      <c r="W26" s="1">
+        <v>-10</v>
+      </c>
+      <c r="Y26"/>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>81</v>
       </c>
@@ -1970,30 +2168,24 @@
       <c r="C27" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F27" s="1">
-        <v>10</v>
-      </c>
-      <c r="G27" s="1">
-        <f>(H27*-1)</f>
-        <v>10</v>
-      </c>
       <c r="H27" s="1">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="I27" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="J27" s="1">
         <v>-10</v>
       </c>
       <c r="K27" s="1">
-        <v>10</v>
-      </c>
-      <c r="N27" s="1">
-        <v>10</v>
-      </c>
-      <c r="O27" s="1">
-        <v>-10</v>
+        <v>-10</v>
+      </c>
+      <c r="M27" s="1">
+        <v>10</v>
       </c>
       <c r="P27" s="1">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="Q27" s="1">
         <v>-10</v>
@@ -2002,17 +2194,23 @@
         <v>-10</v>
       </c>
       <c r="S27" s="1">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="T27" s="1">
         <v>-10</v>
       </c>
       <c r="U27" s="1">
-        <v>-10</v>
-      </c>
-      <c r="W27"/>
-    </row>
-    <row r="28" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="V27" s="1">
+        <v>-10</v>
+      </c>
+      <c r="W27" s="1">
+        <v>-10</v>
+      </c>
+      <c r="Y27"/>
+    </row>
+    <row r="28" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>97</v>
       </c>
@@ -2022,27 +2220,27 @@
       <c r="C28" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F28" s="1">
-        <v>10</v>
-      </c>
-      <c r="G28" s="1">
-        <f>(H28*-1)</f>
-        <v>10</v>
-      </c>
       <c r="H28" s="1">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="I28" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="J28" s="1">
         <v>-10</v>
       </c>
       <c r="K28" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+        <v>-10</v>
+      </c>
+      <c r="M28" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>97</v>
       </c>
@@ -2052,27 +2250,27 @@
       <c r="C29" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F29" s="1">
-        <v>10</v>
-      </c>
-      <c r="G29" s="1">
-        <f>(H29*-1)</f>
-        <v>10</v>
-      </c>
       <c r="H29" s="1">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="I29" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="J29" s="1">
         <v>-10</v>
       </c>
       <c r="K29" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+        <v>-10</v>
+      </c>
+      <c r="M29" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>97</v>
       </c>
@@ -2082,27 +2280,27 @@
       <c r="C30" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F30" s="1">
-        <v>10</v>
-      </c>
-      <c r="G30" s="1">
-        <f>(H30*-1)</f>
-        <v>10</v>
-      </c>
       <c r="H30" s="1">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="I30" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="J30" s="1">
         <v>-10</v>
       </c>
       <c r="K30" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+        <v>-10</v>
+      </c>
+      <c r="M30" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>97</v>
       </c>
@@ -2112,27 +2310,27 @@
       <c r="C31" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F31" s="1">
-        <v>10</v>
-      </c>
-      <c r="G31" s="1">
-        <f>(H31*-1)</f>
-        <v>10</v>
-      </c>
       <c r="H31" s="1">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="I31" s="1">
-        <v>-10</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="J31" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+        <v>-10</v>
+      </c>
+      <c r="K31" s="1">
+        <v>-10</v>
+      </c>
+      <c r="L31" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>97</v>
       </c>
@@ -2142,27 +2340,27 @@
       <c r="C32" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F32" s="1">
-        <v>10</v>
-      </c>
-      <c r="G32" s="1">
-        <f>(H32*-1)</f>
-        <v>10</v>
-      </c>
       <c r="H32" s="1">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="I32" s="1">
-        <v>-10</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="J32" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+        <v>-10</v>
+      </c>
+      <c r="K32" s="1">
+        <v>-10</v>
+      </c>
+      <c r="L32" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>64</v>
       </c>
@@ -2172,24 +2370,18 @@
       <c r="C33" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F33" s="1">
-        <v>-10</v>
-      </c>
-      <c r="G33" s="1">
-        <f>(H33*-1)</f>
-        <v>-10</v>
-      </c>
       <c r="H33" s="1">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="I33" s="1">
-        <v>10</v>
-      </c>
-      <c r="O33" s="1">
-        <v>-10</v>
-      </c>
-      <c r="P33" s="1">
-        <v>-10</v>
+        <f t="shared" si="0"/>
+        <v>-10</v>
+      </c>
+      <c r="J33" s="1">
+        <v>10</v>
+      </c>
+      <c r="K33" s="1">
+        <v>10</v>
       </c>
       <c r="Q33" s="1">
         <v>-10</v>
@@ -2197,15 +2389,21 @@
       <c r="R33" s="1">
         <v>-10</v>
       </c>
+      <c r="S33" s="1">
+        <v>-10</v>
+      </c>
       <c r="T33" s="1">
         <v>-10</v>
       </c>
-      <c r="U33" s="1">
-        <v>-10</v>
-      </c>
-      <c r="W33"/>
-    </row>
-    <row r="34" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="V33" s="1">
+        <v>-10</v>
+      </c>
+      <c r="W33" s="1">
+        <v>-10</v>
+      </c>
+      <c r="Y33"/>
+    </row>
+    <row r="34" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
@@ -2215,24 +2413,18 @@
       <c r="C34" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F34" s="1">
-        <v>-10</v>
-      </c>
-      <c r="G34" s="1">
-        <f>(H34*-1)</f>
-        <v>-10</v>
-      </c>
       <c r="H34" s="1">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="I34" s="1">
-        <v>10</v>
-      </c>
-      <c r="O34" s="1">
-        <v>-10</v>
-      </c>
-      <c r="P34" s="1">
-        <v>-10</v>
+        <f t="shared" si="0"/>
+        <v>-10</v>
+      </c>
+      <c r="J34" s="1">
+        <v>10</v>
+      </c>
+      <c r="K34" s="1">
+        <v>10</v>
       </c>
       <c r="Q34" s="1">
         <v>-10</v>
@@ -2240,15 +2432,21 @@
       <c r="R34" s="1">
         <v>-10</v>
       </c>
+      <c r="S34" s="1">
+        <v>-10</v>
+      </c>
       <c r="T34" s="1">
         <v>-10</v>
       </c>
-      <c r="U34" s="1">
-        <v>-10</v>
-      </c>
-      <c r="W34"/>
-    </row>
-    <row r="35" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="V34" s="1">
+        <v>-10</v>
+      </c>
+      <c r="W34" s="1">
+        <v>-10</v>
+      </c>
+      <c r="Y34"/>
+    </row>
+    <row r="35" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>68</v>
       </c>
@@ -2258,42 +2456,42 @@
       <c r="C35" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F35" s="1">
-        <v>-10</v>
-      </c>
-      <c r="G35" s="1">
-        <f>(H35*-1)</f>
-        <v>-10</v>
-      </c>
       <c r="H35" s="1">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="I35" s="1">
-        <v>10</v>
-      </c>
-      <c r="O35" s="1">
-        <v>10</v>
-      </c>
-      <c r="P35" s="1">
-        <v>-10</v>
+        <f t="shared" si="0"/>
+        <v>-10</v>
+      </c>
+      <c r="J35" s="1">
+        <v>10</v>
+      </c>
+      <c r="K35" s="1">
+        <v>10</v>
       </c>
       <c r="Q35" s="1">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="R35" s="1">
-        <v>10</v>
+        <v>-10</v>
+      </c>
+      <c r="S35" s="1">
+        <v>-10</v>
       </c>
       <c r="T35" s="1">
-        <v>-10</v>
-      </c>
-      <c r="U35" s="1">
-        <v>-10</v>
-      </c>
-      <c r="W35">
+        <v>10</v>
+      </c>
+      <c r="V35" s="1">
+        <v>-10</v>
+      </c>
+      <c r="W35" s="1">
+        <v>-10</v>
+      </c>
+      <c r="Y35">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>106</v>
       </c>
@@ -2303,42 +2501,48 @@
       <c r="C36" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F36" s="1">
-        <v>-10</v>
-      </c>
-      <c r="G36" s="1">
-        <f>(H36*-1)</f>
-        <v>-10</v>
+      <c r="D36" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E36" s="3">
+        <v>610531</v>
       </c>
       <c r="H36" s="1">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="I36" s="1">
-        <v>10</v>
-      </c>
-      <c r="O36" s="1">
-        <v>10</v>
-      </c>
-      <c r="P36" s="1">
-        <v>-10</v>
+        <f t="shared" si="0"/>
+        <v>-10</v>
+      </c>
+      <c r="J36" s="1">
+        <v>10</v>
+      </c>
+      <c r="K36" s="1">
+        <v>10</v>
       </c>
       <c r="Q36" s="1">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="R36" s="1">
-        <v>10</v>
+        <v>-10</v>
+      </c>
+      <c r="S36" s="1">
+        <v>-10</v>
       </c>
       <c r="T36" s="1">
-        <v>-10</v>
-      </c>
-      <c r="U36" s="1">
-        <v>-10</v>
-      </c>
-      <c r="W36">
+        <v>10</v>
+      </c>
+      <c r="V36" s="1">
+        <v>-10</v>
+      </c>
+      <c r="W36" s="1">
+        <v>-10</v>
+      </c>
+      <c r="Y36">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>70</v>
       </c>
@@ -2348,40 +2552,46 @@
       <c r="C37" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F37" s="1">
-        <v>-10</v>
-      </c>
-      <c r="G37" s="1">
-        <f>(H37*-1)</f>
-        <v>-10</v>
+      <c r="D37" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E37" s="1">
+        <v>2</v>
       </c>
       <c r="H37" s="1">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="I37" s="1">
-        <v>10</v>
-      </c>
-      <c r="O37" s="1">
-        <v>10</v>
-      </c>
-      <c r="P37" s="1">
-        <v>-10</v>
+        <f t="shared" si="0"/>
+        <v>-10</v>
+      </c>
+      <c r="J37" s="1">
+        <v>10</v>
+      </c>
+      <c r="K37" s="1">
+        <v>10</v>
       </c>
       <c r="Q37" s="1">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="R37" s="1">
-        <v>10</v>
+        <v>-10</v>
+      </c>
+      <c r="S37" s="1">
+        <v>-10</v>
       </c>
       <c r="T37" s="1">
-        <v>-10</v>
-      </c>
-      <c r="U37" s="1">
-        <v>-10</v>
-      </c>
-      <c r="W37"/>
-    </row>
-    <row r="38" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="V37" s="1">
+        <v>-10</v>
+      </c>
+      <c r="W37" s="1">
+        <v>-10</v>
+      </c>
+      <c r="Y37"/>
+    </row>
+    <row r="38" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>97</v>
       </c>
@@ -2391,20 +2601,20 @@
       <c r="C38" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="F38" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F38" s="1">
-        <v>-10</v>
-      </c>
-      <c r="G38" s="1">
-        <f>(H38*-1)</f>
-        <v>-10</v>
-      </c>
       <c r="H38" s="1">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="I38" s="1">
+        <f t="shared" si="0"/>
+        <v>-10</v>
+      </c>
+      <c r="J38" s="1">
+        <v>10</v>
+      </c>
+      <c r="K38" s="1">
         <v>10</v>
       </c>
     </row>

--- a/inst/algorithms scoring.xlsx
+++ b/inst/algorithms scoring.xlsx
@@ -100,147 +100,72 @@
     <t>multi_class</t>
   </si>
   <si>
-    <t>ada Boosting</t>
-  </si>
-  <si>
-    <t>ada </t>
-  </si>
-  <si>
-    <t>bartmachine </t>
-  </si>
-  <si>
     <t>Bayesian Additive Regression Trees</t>
   </si>
   <si>
-    <t>binomial </t>
-  </si>
-  <si>
     <t>Binomial Regression</t>
   </si>
   <si>
-    <t>bst </t>
-  </si>
-  <si>
     <t>Gradient Boosting</t>
   </si>
   <si>
-    <t>clusterSVM </t>
-  </si>
-  <si>
     <t>Clustered Support Vector Machines</t>
   </si>
   <si>
-    <t>extraTrees </t>
-  </si>
-  <si>
     <t>Extremely Randomized Trees</t>
   </si>
   <si>
-    <t>fnn </t>
-  </si>
-  <si>
     <t>Fast k-Nearest Neighbour</t>
   </si>
   <si>
-    <t>gausspr </t>
-  </si>
-  <si>
     <t>Gaussian Processes</t>
   </si>
   <si>
-    <t>gbm </t>
-  </si>
-  <si>
     <t>Gradient Boosting Machine</t>
   </si>
   <si>
-    <t>kknn </t>
-  </si>
-  <si>
     <t>k-Nearest Neighbor</t>
   </si>
   <si>
-    <t>ksvm </t>
-  </si>
-  <si>
     <t>Support Vector Machines</t>
   </si>
   <si>
-    <t>lda </t>
-  </si>
-  <si>
     <t>Linear Discriminant Analysis</t>
   </si>
   <si>
-    <t>logreg </t>
-  </si>
-  <si>
     <t>Logistic Regression</t>
   </si>
   <si>
-    <t>multinom </t>
-  </si>
-  <si>
     <t>Multinomial Regression</t>
   </si>
   <si>
-    <t>nbayes </t>
-  </si>
-  <si>
     <t>Naive Bayes</t>
   </si>
   <si>
-    <t>rf </t>
-  </si>
-  <si>
     <t>Random Forest</t>
   </si>
   <si>
-    <t>rknn </t>
-  </si>
-  <si>
     <t>Random k-Nearest-Neighbors</t>
   </si>
   <si>
-    <t>rpart </t>
-  </si>
-  <si>
     <t>Decision Tree</t>
   </si>
   <si>
-    <t>xgboost </t>
-  </si>
-  <si>
     <t>eXtreme Gradient Boosting</t>
   </si>
   <si>
-    <t>bgp </t>
-  </si>
-  <si>
     <t>Bayesian Gaussian Process</t>
   </si>
   <si>
-    <t>blm </t>
-  </si>
-  <si>
     <t>Bayesian Linear Model</t>
   </si>
   <si>
-    <t>glm </t>
-  </si>
-  <si>
     <t>Generalized Linear Regression</t>
   </si>
   <si>
-    <t>lm </t>
-  </si>
-  <si>
     <t>Simple Linear Regression</t>
   </si>
   <si>
-    <t>nnet </t>
-  </si>
-  <si>
     <t>Neural Network</t>
   </si>
   <si>
@@ -253,21 +178,12 @@
     <t>regression</t>
   </si>
   <si>
-    <t>dbscan </t>
-  </si>
-  <si>
     <t>DBScan Clustering</t>
   </si>
   <si>
-    <t>kkmeans </t>
-  </si>
-  <si>
     <t>Kernel K-Means</t>
   </si>
   <si>
-    <t>kmeans </t>
-  </si>
-  <si>
     <t>K-Means</t>
   </si>
   <si>
@@ -289,9 +205,6 @@
     <t>L1-Regularized L2-Loss Support Vector Classification</t>
   </si>
   <si>
-    <t>svm </t>
-  </si>
-  <si>
     <t>Support Vector Machines with Kernal</t>
   </si>
   <si>
@@ -422,6 +335,93 @@
   </si>
   <si>
     <t>mlr.regr.lm</t>
+  </si>
+  <si>
+    <t>ada</t>
+  </si>
+  <si>
+    <t>bartmachine</t>
+  </si>
+  <si>
+    <t>bgp</t>
+  </si>
+  <si>
+    <t>binomial</t>
+  </si>
+  <si>
+    <t>blm</t>
+  </si>
+  <si>
+    <t>bst</t>
+  </si>
+  <si>
+    <t>clusterSVM</t>
+  </si>
+  <si>
+    <t>dbscan</t>
+  </si>
+  <si>
+    <t>extraTrees</t>
+  </si>
+  <si>
+    <t>fnn</t>
+  </si>
+  <si>
+    <t>gausspr</t>
+  </si>
+  <si>
+    <t>gbm</t>
+  </si>
+  <si>
+    <t>glm</t>
+  </si>
+  <si>
+    <t>kkmeans</t>
+  </si>
+  <si>
+    <t>kknn</t>
+  </si>
+  <si>
+    <t>kmeans</t>
+  </si>
+  <si>
+    <t>ksvm</t>
+  </si>
+  <si>
+    <t>lda</t>
+  </si>
+  <si>
+    <t>lm</t>
+  </si>
+  <si>
+    <t>logreg</t>
+  </si>
+  <si>
+    <t>multinom</t>
+  </si>
+  <si>
+    <t>nbayes</t>
+  </si>
+  <si>
+    <t>nnet</t>
+  </si>
+  <si>
+    <t>rf</t>
+  </si>
+  <si>
+    <t>rknn</t>
+  </si>
+  <si>
+    <t>rpart</t>
+  </si>
+  <si>
+    <t>svm</t>
+  </si>
+  <si>
+    <t>xgboost</t>
+  </si>
+  <si>
+    <t>Ada Boosting</t>
   </si>
 </sst>
 </file>
@@ -750,18 +750,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB38"/>
+  <dimension ref="A1:AB30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M8" sqref="M8"/>
+      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="23.5703125" style="1" customWidth="1"/>
@@ -802,13 +802,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>2</v>
@@ -820,19 +820,19 @@
         <v>4</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>6</v>
@@ -844,7 +844,7 @@
         <v>8</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>20</v>
@@ -876,16 +876,16 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>105</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -894,17 +894,17 @@
         <v>10</v>
       </c>
       <c r="I2" s="1">
-        <f t="shared" ref="I2:I38" si="0">(J2*-1)</f>
+        <f t="shared" ref="I2:I30" si="0">(J2*-1)</f>
         <v>-10</v>
       </c>
       <c r="J2" s="1">
         <v>10</v>
       </c>
       <c r="K2" s="1">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="Q2" s="1">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="R2" s="1">
         <v>-10</v>
@@ -914,6 +914,9 @@
       </c>
       <c r="T2" s="1">
         <v>-10</v>
+      </c>
+      <c r="U2" s="1">
+        <v>10</v>
       </c>
       <c r="V2" s="1">
         <v>10</v>
@@ -927,19 +930,19 @@
     </row>
     <row r="3" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>106</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="E3" s="1">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="H3" s="1">
         <v>10</v>
@@ -952,19 +955,19 @@
         <v>10</v>
       </c>
       <c r="K3" s="1">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="Q3" s="1">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="R3" s="1">
         <v>-10</v>
       </c>
       <c r="S3" s="1">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="T3" s="1">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="U3" s="1">
         <v>10</v>
@@ -973,28 +976,22 @@
         <v>10</v>
       </c>
       <c r="W3" s="1">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="Y3"/>
     </row>
     <row r="4" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E4" s="1">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="H4" s="1">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" si="0"/>
@@ -1019,30 +1016,28 @@
         <v>-10</v>
       </c>
       <c r="V4" s="1">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="W4" s="1">
-        <v>10</v>
-      </c>
-      <c r="Y4">
-        <v>1</v>
-      </c>
+        <v>-10</v>
+      </c>
+      <c r="Y4"/>
     </row>
     <row r="5" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="E5" s="1">
-        <v>65</v>
+        <v>247</v>
       </c>
       <c r="H5" s="1">
         <v>10</v>
@@ -1055,7 +1050,7 @@
         <v>10</v>
       </c>
       <c r="K5" s="1">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="Q5" s="1">
         <v>10</v>
@@ -1067,7 +1062,7 @@
         <v>-10</v>
       </c>
       <c r="T5" s="1">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="U5" s="1">
         <v>10</v>
@@ -1076,30 +1071,22 @@
         <v>10</v>
       </c>
       <c r="W5" s="1">
-        <v>10</v>
-      </c>
-      <c r="Y5">
-        <v>4</v>
-      </c>
+        <v>-10</v>
+      </c>
+      <c r="Y5"/>
     </row>
     <row r="6" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E6" s="1">
-        <v>221</v>
+        <v>51</v>
       </c>
       <c r="H6" s="1">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" si="0"/>
@@ -1112,46 +1099,41 @@
         <v>10</v>
       </c>
       <c r="Q6" s="1">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="R6" s="1">
         <v>-10</v>
       </c>
       <c r="S6" s="1">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="T6" s="1">
-        <v>10</v>
-      </c>
-      <c r="U6" s="1">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="V6" s="1">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="W6" s="1">
-        <v>10</v>
-      </c>
-      <c r="Y6">
+        <v>-10</v>
+      </c>
+      <c r="Y6"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E7" s="1">
-        <v>50981</v>
-      </c>
       <c r="H7" s="1">
         <v>10</v>
       </c>
@@ -1165,11 +1147,8 @@
       <c r="K7" s="1">
         <v>10</v>
       </c>
-      <c r="P7" s="1">
-        <v>10</v>
-      </c>
       <c r="Q7" s="1">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="R7" s="1">
         <v>-10</v>
@@ -1180,256 +1159,223 @@
       <c r="T7" s="1">
         <v>-10</v>
       </c>
-      <c r="U7" s="1">
-        <v>10</v>
-      </c>
       <c r="V7" s="1">
         <v>10</v>
       </c>
       <c r="W7" s="1">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="Y7">
         <v>1</v>
       </c>
       <c r="AB7" s="2"/>
     </row>
-    <row r="8" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>46</v>
+        <v>111</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="1">
+        <v>10</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="0"/>
+        <v>-10</v>
+      </c>
+      <c r="J8" s="1">
+        <v>10</v>
+      </c>
+      <c r="K8" s="1">
+        <v>-10</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>-10</v>
+      </c>
+      <c r="R8" s="1">
+        <v>-10</v>
+      </c>
+      <c r="S8" s="1">
+        <v>-10</v>
+      </c>
+      <c r="T8" s="1">
+        <v>-10</v>
+      </c>
+      <c r="V8" s="1">
+        <v>10</v>
+      </c>
+      <c r="W8" s="1">
+        <v>-10</v>
+      </c>
+      <c r="Y8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="1">
+        <v>10</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="J9" s="1">
+        <v>-10</v>
+      </c>
+      <c r="K9" s="1">
+        <v>-10</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>-10</v>
+      </c>
+      <c r="R9" s="1">
+        <v>-10</v>
+      </c>
+      <c r="S9" s="1">
+        <v>-10</v>
+      </c>
+      <c r="T9" s="1">
+        <v>-10</v>
+      </c>
+      <c r="V9" s="1">
+        <v>-10</v>
+      </c>
+      <c r="W9" s="1">
+        <v>-10</v>
+      </c>
+      <c r="Y9"/>
+    </row>
+    <row r="10" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E8" s="1">
-        <v>335</v>
-      </c>
-      <c r="H8" s="1">
-        <v>10</v>
-      </c>
-      <c r="I8" s="1">
-        <f t="shared" si="0"/>
-        <v>-10</v>
-      </c>
-      <c r="J8" s="1">
-        <v>10</v>
-      </c>
-      <c r="K8" s="1">
-        <v>10</v>
-      </c>
-      <c r="O8" s="1">
-        <v>10</v>
-      </c>
-      <c r="P8" s="1">
-        <v>10</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>10</v>
-      </c>
-      <c r="R8" s="1">
-        <v>-10</v>
-      </c>
-      <c r="S8" s="1">
-        <v>-10</v>
-      </c>
-      <c r="T8" s="1">
-        <v>-10</v>
-      </c>
-      <c r="U8" s="1">
-        <v>10</v>
-      </c>
-      <c r="V8" s="1">
-        <v>10</v>
-      </c>
-      <c r="W8" s="1">
-        <v>10</v>
-      </c>
-      <c r="Y8">
+      <c r="E10" s="1">
+        <v>84</v>
+      </c>
+      <c r="H10" s="1">
+        <v>10</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="0"/>
+        <v>-10</v>
+      </c>
+      <c r="J10" s="1">
+        <v>10</v>
+      </c>
+      <c r="K10" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>-10</v>
+      </c>
+      <c r="R10" s="1">
+        <v>-10</v>
+      </c>
+      <c r="S10" s="1">
+        <v>-10</v>
+      </c>
+      <c r="T10" s="1">
+        <v>10</v>
+      </c>
+      <c r="U10" s="1">
+        <v>10</v>
+      </c>
+      <c r="V10" s="1">
+        <v>10</v>
+      </c>
+      <c r="W10" s="1">
+        <v>10</v>
+      </c>
+      <c r="Y10"/>
+    </row>
+    <row r="11" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2</v>
+      </c>
+      <c r="H11" s="1">
+        <v>10</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="0"/>
+        <v>-10</v>
+      </c>
+      <c r="J11" s="1">
+        <v>10</v>
+      </c>
+      <c r="K11" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>-10</v>
+      </c>
+      <c r="R11" s="1">
+        <v>-10</v>
+      </c>
+      <c r="S11" s="1">
+        <v>-10</v>
+      </c>
+      <c r="T11" s="1">
+        <v>-10</v>
+      </c>
+      <c r="V11" s="1">
+        <v>10</v>
+      </c>
+      <c r="W11" s="1">
+        <v>10</v>
+      </c>
+      <c r="Y11">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E9" s="3">
-        <v>459246</v>
-      </c>
-      <c r="H9" s="1">
-        <v>10</v>
-      </c>
-      <c r="I9" s="1">
-        <f t="shared" si="0"/>
-        <v>-10</v>
-      </c>
-      <c r="J9" s="1">
-        <v>10</v>
-      </c>
-      <c r="K9" s="1">
-        <v>10</v>
-      </c>
-      <c r="P9" s="1">
-        <v>10</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>10</v>
-      </c>
-      <c r="R9" s="1">
-        <v>-10</v>
-      </c>
-      <c r="S9" s="1">
-        <v>-10</v>
-      </c>
-      <c r="T9" s="1">
-        <v>-10</v>
-      </c>
-      <c r="U9" s="1">
-        <v>10</v>
-      </c>
-      <c r="V9" s="1">
-        <v>10</v>
-      </c>
-      <c r="W9" s="1">
-        <v>10</v>
-      </c>
-      <c r="Y9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E10" s="1">
-        <v>152</v>
-      </c>
-      <c r="H10" s="1">
-        <v>10</v>
-      </c>
-      <c r="I10" s="1">
-        <f t="shared" si="0"/>
-        <v>-10</v>
-      </c>
-      <c r="J10" s="1">
-        <v>10</v>
-      </c>
-      <c r="K10" s="1">
-        <v>10</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>10</v>
-      </c>
-      <c r="R10" s="1">
-        <v>-10</v>
-      </c>
-      <c r="S10" s="1">
-        <v>-10</v>
-      </c>
-      <c r="T10" s="1">
-        <v>10</v>
-      </c>
-      <c r="U10" s="1">
-        <v>10</v>
-      </c>
-      <c r="V10" s="1">
-        <v>10</v>
-      </c>
-      <c r="W10" s="1">
-        <v>10</v>
-      </c>
-      <c r="Y10"/>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="1" t="s">
+    <row r="12" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E11" s="1">
-        <v>399</v>
-      </c>
-      <c r="H11" s="1">
-        <v>10</v>
-      </c>
-      <c r="I11" s="1">
-        <f t="shared" si="0"/>
-        <v>-10</v>
-      </c>
-      <c r="J11" s="1">
-        <v>10</v>
-      </c>
-      <c r="K11" s="1">
-        <v>10</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>10</v>
-      </c>
-      <c r="R11" s="1">
-        <v>10</v>
-      </c>
-      <c r="S11" s="1">
-        <v>-10</v>
-      </c>
-      <c r="T11" s="1">
-        <v>-10</v>
-      </c>
-      <c r="U11" s="1">
-        <v>10</v>
-      </c>
-      <c r="V11" s="1">
-        <v>10</v>
-      </c>
-      <c r="W11" s="1">
-        <v>10</v>
-      </c>
-      <c r="Y11"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E12" s="3">
-        <v>465158</v>
+        <v>87</v>
+      </c>
+      <c r="E12" s="1">
+        <v>65</v>
       </c>
       <c r="H12" s="1">
         <v>10</v>
@@ -1448,13 +1394,13 @@
         <v>10</v>
       </c>
       <c r="R12" s="1">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="S12" s="1">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="T12" s="1">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="U12" s="1">
         <v>10</v>
@@ -1465,23 +1411,25 @@
       <c r="W12" s="1">
         <v>10</v>
       </c>
-      <c r="Y12"/>
+      <c r="Y12">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E13" s="3">
-        <v>557611</v>
+        <v>88</v>
+      </c>
+      <c r="E13" s="1">
+        <v>221</v>
       </c>
       <c r="H13" s="1">
         <v>10</v>
@@ -1497,7 +1445,7 @@
         <v>10</v>
       </c>
       <c r="Q13" s="1">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="R13" s="1">
         <v>-10</v>
@@ -1517,23 +1465,22 @@
       <c r="W13" s="1">
         <v>10</v>
       </c>
-      <c r="Y13"/>
+      <c r="Y13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="H14" s="1">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" si="0"/>
@@ -1545,31 +1492,46 @@
       <c r="K14" s="1">
         <v>10</v>
       </c>
-      <c r="O14" s="1">
-        <v>10</v>
-      </c>
-      <c r="P14" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Q14" s="1">
+        <v>10</v>
+      </c>
+      <c r="R14" s="1">
+        <v>-10</v>
+      </c>
+      <c r="S14" s="1">
+        <v>-10</v>
+      </c>
+      <c r="T14" s="1">
+        <v>10</v>
+      </c>
+      <c r="V14" s="1">
+        <v>-10</v>
+      </c>
+      <c r="W14" s="1">
+        <v>-10</v>
+      </c>
+      <c r="Y14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1</v>
+        <v>103</v>
+      </c>
+      <c r="E15" s="3">
+        <v>610531</v>
       </c>
       <c r="H15" s="1">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="I15" s="1">
         <f t="shared" si="0"/>
@@ -1579,7 +1541,7 @@
         <v>10</v>
       </c>
       <c r="K15" s="1">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="Q15" s="1">
         <v>10</v>
@@ -1591,13 +1553,10 @@
         <v>-10</v>
       </c>
       <c r="T15" s="1">
-        <v>-10</v>
-      </c>
-      <c r="U15" s="1">
         <v>10</v>
       </c>
       <c r="V15" s="1">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="W15" s="1">
         <v>-10</v>
@@ -1606,52 +1565,43 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>118</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E16" s="1">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="H16" s="1">
         <v>10</v>
       </c>
       <c r="I16" s="1">
         <f t="shared" si="0"/>
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="J16" s="1">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="K16" s="1">
         <v>-10</v>
       </c>
       <c r="Q16" s="1">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="R16" s="1">
         <v>-10</v>
       </c>
       <c r="S16" s="1">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="T16" s="1">
         <v>-10</v>
       </c>
-      <c r="U16" s="1">
-        <v>10</v>
-      </c>
       <c r="V16" s="1">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="W16" s="1">
         <v>-10</v>
@@ -1660,19 +1610,19 @@
     </row>
     <row r="17" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>30</v>
+        <v>119</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>127</v>
+        <v>89</v>
       </c>
       <c r="E17" s="1">
-        <v>247</v>
+        <v>50981</v>
       </c>
       <c r="H17" s="1">
         <v>10</v>
@@ -1685,7 +1635,10 @@
         <v>10</v>
       </c>
       <c r="K17" s="1">
-        <v>-10</v>
+        <v>10</v>
+      </c>
+      <c r="P17" s="1">
+        <v>10</v>
       </c>
       <c r="Q17" s="1">
         <v>10</v>
@@ -1697,7 +1650,7 @@
         <v>-10</v>
       </c>
       <c r="T17" s="1">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="U17" s="1">
         <v>10</v>
@@ -1706,33 +1659,41 @@
         <v>10</v>
       </c>
       <c r="W17" s="1">
-        <v>-10</v>
-      </c>
-      <c r="Y17"/>
-    </row>
-    <row r="18" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="Y17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="H18" s="1">
         <v>10</v>
       </c>
       <c r="I18" s="1">
         <f t="shared" si="0"/>
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="J18" s="1">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="K18" s="1">
         <v>-10</v>
       </c>
+      <c r="M18" s="1">
+        <v>10</v>
+      </c>
+      <c r="P18" s="1">
+        <v>10</v>
+      </c>
       <c r="Q18" s="1">
         <v>-10</v>
       </c>
@@ -1745,31 +1706,32 @@
       <c r="T18" s="1">
         <v>-10</v>
       </c>
+      <c r="U18" s="1">
+        <v>10</v>
+      </c>
       <c r="V18" s="1">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="W18" s="1">
         <v>-10</v>
       </c>
-      <c r="Y18">
-        <v>2</v>
-      </c>
+      <c r="Y18"/>
     </row>
     <row r="19" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>48</v>
+        <v>121</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="E19" s="1">
-        <v>234</v>
+        <v>335</v>
       </c>
       <c r="H19" s="1">
         <v>10</v>
@@ -1782,7 +1744,13 @@
         <v>10</v>
       </c>
       <c r="K19" s="1">
-        <v>-10</v>
+        <v>10</v>
+      </c>
+      <c r="O19" s="1">
+        <v>10</v>
+      </c>
+      <c r="P19" s="1">
+        <v>10</v>
       </c>
       <c r="Q19" s="1">
         <v>10</v>
@@ -1809,21 +1777,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="D20" s="3" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="E20" s="1">
-        <v>59</v>
+        <v>234</v>
       </c>
       <c r="H20" s="1">
         <v>10</v>
@@ -1848,7 +1816,7 @@
         <v>-10</v>
       </c>
       <c r="T20" s="1">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="U20" s="1">
         <v>10</v>
@@ -1857,7 +1825,7 @@
         <v>10</v>
       </c>
       <c r="W20" s="1">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="Y20">
         <v>1</v>
@@ -1865,22 +1833,22 @@
     </row>
     <row r="21" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>52</v>
+        <v>123</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="E21" s="1">
-        <v>147</v>
+        <v>2</v>
       </c>
       <c r="H21" s="1">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="I21" s="1">
         <f t="shared" si="0"/>
@@ -1890,7 +1858,7 @@
         <v>10</v>
       </c>
       <c r="K21" s="1">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="Q21" s="1">
         <v>10</v>
@@ -1904,28 +1872,29 @@
       <c r="T21" s="1">
         <v>10</v>
       </c>
-      <c r="U21" s="1">
-        <v>10</v>
-      </c>
       <c r="V21" s="1">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="W21" s="1">
-        <v>10</v>
-      </c>
-      <c r="Y21">
-        <v>1</v>
-      </c>
+        <v>-10</v>
+      </c>
+      <c r="Y21"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>54</v>
+        <v>124</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>75</v>
+        <v>50</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E22" s="1">
+        <v>59</v>
       </c>
       <c r="H22" s="1">
         <v>10</v>
@@ -1940,9 +1909,6 @@
       <c r="K22" s="1">
         <v>-10</v>
       </c>
-      <c r="P22" s="1">
-        <v>10</v>
-      </c>
       <c r="Q22" s="1">
         <v>10</v>
       </c>
@@ -1950,10 +1916,10 @@
         <v>-10</v>
       </c>
       <c r="S22" s="1">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="T22" s="1">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="U22" s="1">
         <v>10</v>
@@ -1962,74 +1928,75 @@
         <v>10</v>
       </c>
       <c r="W22" s="1">
-        <v>10</v>
-      </c>
-      <c r="X22" s="1">
-        <v>10</v>
-      </c>
-      <c r="Y22"/>
+        <v>-10</v>
+      </c>
+      <c r="Y22">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>58</v>
+        <v>125</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="E23" s="1">
+        <v>147</v>
+      </c>
+      <c r="H23" s="1">
+        <v>10</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" si="0"/>
+        <v>-10</v>
+      </c>
+      <c r="J23" s="1">
+        <v>10</v>
+      </c>
+      <c r="K23" s="1">
+        <v>-10</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>10</v>
+      </c>
+      <c r="R23" s="1">
+        <v>-10</v>
+      </c>
+      <c r="S23" s="1">
+        <v>-10</v>
+      </c>
+      <c r="T23" s="1">
+        <v>10</v>
+      </c>
+      <c r="U23" s="1">
+        <v>10</v>
+      </c>
+      <c r="V23" s="1">
+        <v>10</v>
+      </c>
+      <c r="W23" s="1">
+        <v>10</v>
+      </c>
+      <c r="Y23">
         <v>1</v>
       </c>
-      <c r="H23" s="1">
-        <v>10</v>
-      </c>
-      <c r="I23" s="1">
-        <f t="shared" si="0"/>
-        <v>-10</v>
-      </c>
-      <c r="J23" s="1">
-        <v>10</v>
-      </c>
-      <c r="K23" s="1">
-        <v>-10</v>
-      </c>
-      <c r="Q23" s="1">
-        <v>-10</v>
-      </c>
-      <c r="R23" s="1">
-        <v>10</v>
-      </c>
-      <c r="S23" s="1">
-        <v>-10</v>
-      </c>
-      <c r="T23" s="1">
-        <v>-10</v>
-      </c>
-      <c r="V23" s="1">
-        <v>10</v>
-      </c>
-      <c r="W23" s="1">
-        <v>10</v>
-      </c>
-      <c r="Y23"/>
-    </row>
-    <row r="24" spans="1:25" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="H24" s="1">
         <v>10</v>
@@ -2048,19 +2015,19 @@
         <v>10</v>
       </c>
       <c r="Q24" s="1">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="R24" s="1">
         <v>-10</v>
       </c>
       <c r="S24" s="1">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="T24" s="1">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="U24" s="1">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="V24" s="1">
         <v>10</v>
@@ -2071,32 +2038,39 @@
       <c r="X24" s="1">
         <v>10</v>
       </c>
+      <c r="Y24"/>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>83</v>
+        <v>57</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E25" s="1">
+        <v>152</v>
       </c>
       <c r="H25" s="1">
         <v>10</v>
       </c>
       <c r="I25" s="1">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="J25" s="1">
-        <v>-10</v>
+        <v>-100</v>
       </c>
       <c r="K25" s="1">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="Q25" s="1">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="R25" s="1">
         <v>-10</v>
@@ -2105,44 +2079,53 @@
         <v>-10</v>
       </c>
       <c r="T25" s="1">
-        <v>-10</v>
+        <v>10</v>
+      </c>
+      <c r="U25" s="1">
+        <v>10</v>
       </c>
       <c r="V25" s="1">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="W25" s="1">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="Y25"/>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>83</v>
+        <v>57</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" s="1">
+        <v>399</v>
       </c>
       <c r="H26" s="1">
         <v>10</v>
       </c>
       <c r="I26" s="1">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="J26" s="1">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="K26" s="1">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="Q26" s="1">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="R26" s="1">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="S26" s="1">
         <v>-10</v>
@@ -2150,48 +2133,51 @@
       <c r="T26" s="1">
         <v>-10</v>
       </c>
+      <c r="U26" s="1">
+        <v>10</v>
+      </c>
       <c r="V26" s="1">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="W26" s="1">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="Y26"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>81</v>
+        <v>129</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>83</v>
+        <v>50</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
       </c>
       <c r="H27" s="1">
         <v>10</v>
       </c>
       <c r="I27" s="1">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="J27" s="1">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="K27" s="1">
         <v>-10</v>
       </c>
-      <c r="M27" s="1">
-        <v>10</v>
-      </c>
-      <c r="P27" s="1">
-        <v>10</v>
-      </c>
       <c r="Q27" s="1">
         <v>-10</v>
       </c>
       <c r="R27" s="1">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="S27" s="1">
         <v>-10</v>
@@ -2199,428 +2185,178 @@
       <c r="T27" s="1">
         <v>-10</v>
       </c>
-      <c r="U27" s="1">
-        <v>10</v>
-      </c>
       <c r="V27" s="1">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="W27" s="1">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="Y27"/>
     </row>
-    <row r="28" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>94</v>
       </c>
+      <c r="E28" s="3">
+        <v>465158</v>
+      </c>
       <c r="H28" s="1">
         <v>10</v>
       </c>
       <c r="I28" s="1">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="J28" s="1">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="K28" s="1">
-        <v>-10</v>
-      </c>
-      <c r="M28" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" ht="60" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>10</v>
+      </c>
+      <c r="R28" s="1">
+        <v>10</v>
+      </c>
+      <c r="S28" s="1">
+        <v>10</v>
+      </c>
+      <c r="T28" s="1">
+        <v>10</v>
+      </c>
+      <c r="U28" s="1">
+        <v>10</v>
+      </c>
+      <c r="V28" s="1">
+        <v>10</v>
+      </c>
+      <c r="W28" s="1">
+        <v>10</v>
+      </c>
+      <c r="Y28"/>
+    </row>
+    <row r="29" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>96</v>
+        <v>57</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E29" s="3">
+        <v>459246</v>
       </c>
       <c r="H29" s="1">
         <v>10</v>
       </c>
       <c r="I29" s="1">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="J29" s="1">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="K29" s="1">
-        <v>-10</v>
-      </c>
-      <c r="M29" s="1">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="P29" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>10</v>
+      </c>
+      <c r="R29" s="1">
+        <v>-10</v>
+      </c>
+      <c r="S29" s="1">
+        <v>-10</v>
+      </c>
+      <c r="T29" s="1">
+        <v>-10</v>
+      </c>
+      <c r="U29" s="1">
+        <v>10</v>
+      </c>
+      <c r="V29" s="1">
+        <v>10</v>
+      </c>
+      <c r="W29" s="1">
+        <v>10</v>
+      </c>
+      <c r="Y29">
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>99</v>
+        <v>57</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E30" s="3">
+        <v>557611</v>
       </c>
       <c r="H30" s="1">
         <v>10</v>
       </c>
       <c r="I30" s="1">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="J30" s="1">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="K30" s="1">
-        <v>-10</v>
-      </c>
-      <c r="M30" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="H31" s="1">
-        <v>10</v>
-      </c>
-      <c r="I31" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="J31" s="1">
-        <v>-10</v>
-      </c>
-      <c r="K31" s="1">
-        <v>-10</v>
-      </c>
-      <c r="L31" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H32" s="1">
-        <v>10</v>
-      </c>
-      <c r="I32" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="J32" s="1">
-        <v>-10</v>
-      </c>
-      <c r="K32" s="1">
-        <v>-10</v>
-      </c>
-      <c r="L32" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H33" s="1">
-        <v>-10</v>
-      </c>
-      <c r="I33" s="1">
-        <f t="shared" si="0"/>
-        <v>-10</v>
-      </c>
-      <c r="J33" s="1">
-        <v>10</v>
-      </c>
-      <c r="K33" s="1">
-        <v>10</v>
-      </c>
-      <c r="Q33" s="1">
-        <v>-10</v>
-      </c>
-      <c r="R33" s="1">
-        <v>-10</v>
-      </c>
-      <c r="S33" s="1">
-        <v>-10</v>
-      </c>
-      <c r="T33" s="1">
-        <v>-10</v>
-      </c>
-      <c r="V33" s="1">
-        <v>-10</v>
-      </c>
-      <c r="W33" s="1">
-        <v>-10</v>
-      </c>
-      <c r="Y33"/>
-    </row>
-    <row r="34" spans="1:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H34" s="1">
-        <v>-10</v>
-      </c>
-      <c r="I34" s="1">
-        <f t="shared" si="0"/>
-        <v>-10</v>
-      </c>
-      <c r="J34" s="1">
-        <v>10</v>
-      </c>
-      <c r="K34" s="1">
-        <v>10</v>
-      </c>
-      <c r="Q34" s="1">
-        <v>-10</v>
-      </c>
-      <c r="R34" s="1">
-        <v>-10</v>
-      </c>
-      <c r="S34" s="1">
-        <v>-10</v>
-      </c>
-      <c r="T34" s="1">
-        <v>-10</v>
-      </c>
-      <c r="V34" s="1">
-        <v>-10</v>
-      </c>
-      <c r="W34" s="1">
-        <v>-10</v>
-      </c>
-      <c r="Y34"/>
-    </row>
-    <row r="35" spans="1:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H35" s="1">
-        <v>-10</v>
-      </c>
-      <c r="I35" s="1">
-        <f t="shared" si="0"/>
-        <v>-10</v>
-      </c>
-      <c r="J35" s="1">
-        <v>10</v>
-      </c>
-      <c r="K35" s="1">
-        <v>10</v>
-      </c>
-      <c r="Q35" s="1">
-        <v>10</v>
-      </c>
-      <c r="R35" s="1">
-        <v>-10</v>
-      </c>
-      <c r="S35" s="1">
-        <v>-10</v>
-      </c>
-      <c r="T35" s="1">
-        <v>10</v>
-      </c>
-      <c r="V35" s="1">
-        <v>-10</v>
-      </c>
-      <c r="W35" s="1">
-        <v>-10</v>
-      </c>
-      <c r="Y35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:25" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E36" s="3">
-        <v>610531</v>
-      </c>
-      <c r="H36" s="1">
-        <v>-10</v>
-      </c>
-      <c r="I36" s="1">
-        <f t="shared" si="0"/>
-        <v>-10</v>
-      </c>
-      <c r="J36" s="1">
-        <v>10</v>
-      </c>
-      <c r="K36" s="1">
-        <v>10</v>
-      </c>
-      <c r="Q36" s="1">
-        <v>10</v>
-      </c>
-      <c r="R36" s="1">
-        <v>-10</v>
-      </c>
-      <c r="S36" s="1">
-        <v>-10</v>
-      </c>
-      <c r="T36" s="1">
-        <v>10</v>
-      </c>
-      <c r="V36" s="1">
-        <v>-10</v>
-      </c>
-      <c r="W36" s="1">
-        <v>-10</v>
-      </c>
-      <c r="Y36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="E37" s="1">
-        <v>2</v>
-      </c>
-      <c r="H37" s="1">
-        <v>-10</v>
-      </c>
-      <c r="I37" s="1">
-        <f t="shared" si="0"/>
-        <v>-10</v>
-      </c>
-      <c r="J37" s="1">
-        <v>10</v>
-      </c>
-      <c r="K37" s="1">
-        <v>10</v>
-      </c>
-      <c r="Q37" s="1">
-        <v>10</v>
-      </c>
-      <c r="R37" s="1">
-        <v>-10</v>
-      </c>
-      <c r="S37" s="1">
-        <v>-10</v>
-      </c>
-      <c r="T37" s="1">
-        <v>10</v>
-      </c>
-      <c r="V37" s="1">
-        <v>-10</v>
-      </c>
-      <c r="W37" s="1">
-        <v>-10</v>
-      </c>
-      <c r="Y37"/>
-    </row>
-    <row r="38" spans="1:25" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="H38" s="1">
-        <v>-10</v>
-      </c>
-      <c r="I38" s="1">
-        <f t="shared" si="0"/>
-        <v>-10</v>
-      </c>
-      <c r="J38" s="1">
-        <v>10</v>
-      </c>
-      <c r="K38" s="1">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>-10</v>
+      </c>
+      <c r="R30" s="1">
+        <v>-10</v>
+      </c>
+      <c r="S30" s="1">
+        <v>10</v>
+      </c>
+      <c r="T30" s="1">
+        <v>10</v>
+      </c>
+      <c r="U30" s="1">
+        <v>10</v>
+      </c>
+      <c r="V30" s="1">
+        <v>10</v>
+      </c>
+      <c r="W30" s="1">
+        <v>10</v>
+      </c>
+      <c r="Y30"/>
     </row>
   </sheetData>
-  <sortState ref="A3:X38">
-    <sortCondition ref="C3:C38"/>
+  <sortState ref="A2:Y38">
+    <sortCondition ref="A2:A38"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2629,10 +2365,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B12"/>
+  <dimension ref="A2:X25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2680,6 +2416,270 @@
         <v>16</v>
       </c>
     </row>
+    <row r="18" spans="1:24" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" s="1">
+        <v>10</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" ref="I18:I25" si="0">(J18*-1)</f>
+        <v>-10</v>
+      </c>
+      <c r="J18" s="1">
+        <v>10</v>
+      </c>
+      <c r="K18" s="1">
+        <v>10</v>
+      </c>
+      <c r="O18" s="1">
+        <v>10</v>
+      </c>
+      <c r="P18" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H19" s="1">
+        <v>10</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="0"/>
+        <v>-10</v>
+      </c>
+      <c r="J19" s="1">
+        <v>10</v>
+      </c>
+      <c r="K19" s="1">
+        <v>-10</v>
+      </c>
+      <c r="P19" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>-10</v>
+      </c>
+      <c r="R19" s="1">
+        <v>-10</v>
+      </c>
+      <c r="S19" s="1">
+        <v>-10</v>
+      </c>
+      <c r="T19" s="1">
+        <v>10</v>
+      </c>
+      <c r="U19" s="1">
+        <v>-10</v>
+      </c>
+      <c r="V19" s="1">
+        <v>10</v>
+      </c>
+      <c r="W19" s="1">
+        <v>10</v>
+      </c>
+      <c r="X19" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H20" s="1">
+        <v>10</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="J20" s="1">
+        <v>-10</v>
+      </c>
+      <c r="K20" s="1">
+        <v>-10</v>
+      </c>
+      <c r="M20" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H21" s="1">
+        <v>10</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="J21" s="1">
+        <v>-10</v>
+      </c>
+      <c r="K21" s="1">
+        <v>-10</v>
+      </c>
+      <c r="M21" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H22" s="1">
+        <v>10</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="J22" s="1">
+        <v>-10</v>
+      </c>
+      <c r="K22" s="1">
+        <v>-10</v>
+      </c>
+      <c r="M22" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H23" s="1">
+        <v>10</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="J23" s="1">
+        <v>-10</v>
+      </c>
+      <c r="K23" s="1">
+        <v>-10</v>
+      </c>
+      <c r="L23" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H24" s="1">
+        <v>10</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="J24" s="1">
+        <v>-10</v>
+      </c>
+      <c r="K24" s="1">
+        <v>-10</v>
+      </c>
+      <c r="L24" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H25" s="1">
+        <v>-10</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" si="0"/>
+        <v>-10</v>
+      </c>
+      <c r="J25" s="1">
+        <v>10</v>
+      </c>
+      <c r="K25" s="1">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
